--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03850775510819116</v>
+        <v>0.03819759486660548</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.919166397243824</v>
+        <v>-9.65277585525263</v>
       </c>
       <c r="I2" t="n">
-        <v>-10.56826045541769</v>
+        <v>33.00337386403519</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.059057922780171</v>
+        <v>0.0595672719658755</v>
       </c>
       <c r="H3" t="n">
-        <v>21.26796571896331</v>
+        <v>22.31384977114901</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009625136376001119</v>
+        <v>0.007016730674758977</v>
       </c>
       <c r="H4" t="n">
-        <v>405.5496008888453</v>
+        <v>268.545987671781</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02438925818868007</v>
+        <v>-0.00558174888139492</v>
       </c>
       <c r="H5" t="n">
-        <v>542.4395079553506</v>
+        <v>-247.0293182823429</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01723531345875307</v>
+        <v>0.06261000079036701</v>
       </c>
       <c r="H6" t="n">
-        <v>-50.28692666949522</v>
+        <v>80.59059778421118</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0798537624740045</v>
+        <v>0.08855204987330606</v>
       </c>
       <c r="H7" t="n">
-        <v>50.13225078897655</v>
+        <v>66.48581291063182</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02924901871814281</v>
+        <v>0.01490658233141812</v>
       </c>
       <c r="H8" t="n">
-        <v>55.40815231986084</v>
+        <v>179.2028081301959</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04245178050164282</v>
+        <v>0.001690300959692852</v>
       </c>
       <c r="H9" t="n">
-        <v>97.19420200732183</v>
+        <v>107.8516741809202</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.052744872860865</v>
+        <v>-0.04729306482862562</v>
       </c>
       <c r="H10" t="n">
-        <v>-27.44994624314577</v>
+        <v>34.94885456082012</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05979224413278025</v>
+        <v>-0.07418717711622526</v>
       </c>
       <c r="H11" t="n">
-        <v>-35.01622942371671</v>
+        <v>19.37144077220124</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2124942036020168</v>
+        <v>-0.2340960532931304</v>
       </c>
       <c r="H12" t="n">
-        <v>-13.07418017534506</v>
+        <v>4.237428573188897</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2906317036945322</v>
+        <v>-0.3111000085225923</v>
       </c>
       <c r="H13" t="n">
-        <v>5.756085066110646</v>
+        <v>-13.20416371354739</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07267587255562227</v>
+        <v>-0.05075162001597489</v>
       </c>
       <c r="H14" t="n">
-        <v>95.9066589324631</v>
+        <v>-36.80716808910736</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01498392167801499</v>
+        <v>-0.003085842890363873</v>
       </c>
       <c r="H15" t="n">
-        <v>-143.0927118672972</v>
+        <v>91.1253314452846</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1299261595581901</v>
+        <v>0.1346668713025791</v>
       </c>
       <c r="H16" t="n">
-        <v>3.685291602007616</v>
+        <v>7.468533416354393</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1379206604368615</v>
+        <v>0.1475871522120627</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.66119257443624</v>
+        <v>5.231112538889964</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.123728162251383</v>
+        <v>0.1331620833676958</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.8053714549045867</v>
+        <v>6.757937365241736</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1421765512450323</v>
+        <v>0.1278542482069725</v>
       </c>
       <c r="H19" t="n">
-        <v>6.728060818109882</v>
+        <v>-4.023301599360891</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05109804485867941</v>
+        <v>0.03678928601984719</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81720969135087</v>
+        <v>7.144586591373874</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07407863081887338</v>
+        <v>0.05267653309215381</v>
       </c>
       <c r="H21" t="n">
-        <v>27.63405611733939</v>
+        <v>-9.240768809702251</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.06244679971456903</v>
+        <v>-0.05266148268420764</v>
       </c>
       <c r="H22" t="n">
-        <v>-21.79289131935059</v>
+        <v>34.04782441385697</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0696022511238536</v>
+        <v>-0.07016960362575986</v>
       </c>
       <c r="H23" t="n">
-        <v>11.28092556353979</v>
+        <v>-12.18801564343637</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09657192947316025</v>
+        <v>0.1145094226431902</v>
       </c>
       <c r="H24" t="n">
-        <v>-18.23872490991192</v>
+        <v>-3.052196883576929</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1401730771005102</v>
+        <v>0.1232162706591249</v>
       </c>
       <c r="H25" t="n">
-        <v>11.09823227460387</v>
+        <v>-2.341375812972784</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05734543003175433</v>
+        <v>0.04823283847361042</v>
       </c>
       <c r="H26" t="n">
-        <v>15.3736222311119</v>
+        <v>-2.960056588517513</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08947474589833521</v>
+        <v>0.09273467425940869</v>
       </c>
       <c r="H27" t="n">
-        <v>3.228295241581246</v>
+        <v>6.989321260092233</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0658508899598847</v>
+        <v>-0.07609160330851496</v>
       </c>
       <c r="H28" t="n">
-        <v>3.548844511494751</v>
+        <v>-19.65210499696565</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07076520193720172</v>
+        <v>-0.09550856950380406</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.5718792826224071</v>
+        <v>-34.19360530611367</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09417809116421617</v>
+        <v>0.07855707453166022</v>
       </c>
       <c r="H30" t="n">
-        <v>47.82743725707406</v>
+        <v>23.30777639333505</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03700167517641382</v>
+        <v>0.05835684704198968</v>
       </c>
       <c r="H31" t="n">
-        <v>-38.92143703762827</v>
+        <v>-3.670513852526665</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1046847110233169</v>
+        <v>0.1014777440641883</v>
       </c>
       <c r="H32" t="n">
-        <v>6.534160826458373</v>
+        <v>3.270536841167464</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08887514567635429</v>
+        <v>0.06338803230345763</v>
       </c>
       <c r="H33" t="n">
-        <v>8.009314163511524</v>
+        <v>-22.96498820713023</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>0.000479863079012351</v>
+        <v>-0.008802242539078907</v>
       </c>
       <c r="H34" t="n">
-        <v>-98.15828400865387</v>
+        <v>-133.7830342715564</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0446324506988692</v>
+        <v>0.007474504490262423</v>
       </c>
       <c r="H35" t="n">
-        <v>-498.1446669635991</v>
+        <v>166.676466436311</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01120526678073705</v>
+        <v>0.00476771868138504</v>
       </c>
       <c r="H36" t="n">
-        <v>-2181.961974869041</v>
+        <v>785.852090427739</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.008373002305244039</v>
+        <v>-0.0006052085631946093</v>
       </c>
       <c r="H37" t="n">
-        <v>-33.30551534172471</v>
+        <v>95.17925927146115</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1268122476375564</v>
+        <v>0.1020358789660517</v>
       </c>
       <c r="H38" t="n">
-        <v>18.23184635764316</v>
+        <v>-4.868097603937708</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1099785945133076</v>
+        <v>0.1022818874773153</v>
       </c>
       <c r="H39" t="n">
-        <v>28.38550416685674</v>
+        <v>19.40061381057111</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00252235551220371</v>
+        <v>0.004039995908217165</v>
       </c>
       <c r="H40" t="n">
-        <v>-15.07956153520692</v>
+        <v>36.01501543374192</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02386156827183333</v>
+        <v>0.03635336617999158</v>
       </c>
       <c r="H41" t="n">
-        <v>59.11163383797064</v>
+        <v>142.4083539905599</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08882302716895232</v>
+        <v>0.09575626016116683</v>
       </c>
       <c r="H42" t="n">
-        <v>-11.99988437506947</v>
+        <v>-5.130885148000504</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.117216229658988</v>
+        <v>0.1211154539897585</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.437292993581791</v>
+        <v>0.8081524711119243</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03704419051461803</v>
+        <v>0.03007479626620252</v>
       </c>
       <c r="H44" t="n">
-        <v>3.801331362338531</v>
+        <v>-15.72757159719789</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01390077660700739</v>
+        <v>0.0332216816693883</v>
       </c>
       <c r="H45" t="n">
-        <v>-15.08473600689707</v>
+        <v>102.9403067904029</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05284324036867212</v>
+        <v>0.05049762348090088</v>
       </c>
       <c r="H46" t="n">
-        <v>45.82063952385989</v>
+        <v>39.34792225167033</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05174251078797108</v>
+        <v>0.07233176916606916</v>
       </c>
       <c r="H47" t="n">
-        <v>2.581659037707018</v>
+        <v>43.40071189418956</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05405921658846349</v>
+        <v>0.03644658757496372</v>
       </c>
       <c r="H48" t="n">
-        <v>26.36178371647555</v>
+        <v>-14.80720389621818</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06275417882896164</v>
+        <v>0.0709187596797867</v>
       </c>
       <c r="H49" t="n">
-        <v>-9.675157035425007</v>
+        <v>2.07648240889519</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.009603058410197931</v>
+        <v>0.01319781775301627</v>
       </c>
       <c r="H50" t="n">
-        <v>-44.40327914402447</v>
+        <v>-23.59148948388412</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01538715233007618</v>
+        <v>0.01502316724646558</v>
       </c>
       <c r="H51" t="n">
-        <v>-20.96876890790411</v>
+        <v>-22.83826292731912</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08766398359102698</v>
+        <v>-0.1006740260478277</v>
       </c>
       <c r="H52" t="n">
-        <v>-15.31723537917243</v>
+        <v>2.749629870665762</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07259910099957063</v>
+        <v>-0.07752343921450217</v>
       </c>
       <c r="H53" t="n">
-        <v>-21.39126791815336</v>
+        <v>16.05930129476169</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0783328621927107</v>
+        <v>0.06769015725334654</v>
       </c>
       <c r="H54" t="n">
-        <v>7.125289316339946</v>
+        <v>-7.429302636817595</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08996776810895009</v>
+        <v>0.09616158660878361</v>
       </c>
       <c r="H55" t="n">
-        <v>45.22253637830463</v>
+        <v>55.22036172530475</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03613562296886109</v>
+        <v>0.02780428365732081</v>
       </c>
       <c r="H56" t="n">
-        <v>3.276461147256733</v>
+        <v>-20.53470274091964</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01801920102900475</v>
+        <v>0.0282656451653466</v>
       </c>
       <c r="H57" t="n">
-        <v>212.100904203009</v>
+        <v>389.5740604584028</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03383517320284445</v>
+        <v>0.03863652560886717</v>
       </c>
       <c r="H58" t="n">
-        <v>35.28329508830102</v>
+        <v>54.48055973573867</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02018037354001925</v>
+        <v>0.02757144665196607</v>
       </c>
       <c r="H59" t="n">
-        <v>-14.77388203556426</v>
+        <v>16.4402314035841</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02465347999678078</v>
+        <v>0.0249463967996456</v>
       </c>
       <c r="H60" t="n">
-        <v>-24.00906239349631</v>
+        <v>-23.1061869173646</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.05171274492894959</v>
+        <v>0.02511361585224851</v>
       </c>
       <c r="H61" t="n">
-        <v>308.5382590684934</v>
+        <v>98.40124350948713</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04931564954656294</v>
+        <v>0.05398668124619469</v>
       </c>
       <c r="H62" t="n">
-        <v>-18.30100937658814</v>
+        <v>-10.56272389239195</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05896420571309528</v>
+        <v>0.03678473407739007</v>
       </c>
       <c r="H63" t="n">
-        <v>80.93010863768059</v>
+        <v>12.8729854382194</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009875028106722916</v>
+        <v>0.03614603284979163</v>
       </c>
       <c r="H64" t="n">
-        <v>-75.63296649080169</v>
+        <v>-10.80819374318273</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.06506099474081471</v>
+        <v>0.05966828493075703</v>
       </c>
       <c r="H65" t="n">
-        <v>16.05202498860805</v>
+        <v>6.432822329222314</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.108208756403792</v>
+        <v>0.09762585163865245</v>
       </c>
       <c r="H66" t="n">
-        <v>15.66436008244706</v>
+        <v>4.352291187526736</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1186025582937906</v>
+        <v>0.1149906491444582</v>
       </c>
       <c r="H67" t="n">
-        <v>2.733645099637603</v>
+        <v>-0.3949939282026267</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05433093453792846</v>
+        <v>-0.03012942153526091</v>
       </c>
       <c r="H68" t="n">
-        <v>55.89722168848215</v>
+        <v>13.54661670416778</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.008483593679458761</v>
+        <v>-0.01799198648811699</v>
       </c>
       <c r="H69" t="n">
-        <v>-60.02425550225746</v>
+        <v>15.21953053959942</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0801724721100891</v>
+        <v>0.07652342148165765</v>
       </c>
       <c r="H70" t="n">
-        <v>-13.45454374131091</v>
+        <v>-17.39366078780789</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08145676915436113</v>
+        <v>0.09795915617870746</v>
       </c>
       <c r="H71" t="n">
-        <v>-10.69198097036505</v>
+        <v>7.400996564895028</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.04251195994551155</v>
+        <v>-0.05013110604563263</v>
       </c>
       <c r="H72" t="n">
-        <v>-24.19546704000791</v>
+        <v>10.60950646764424</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.07988344139692649</v>
+        <v>-0.06288130032358182</v>
       </c>
       <c r="H73" t="n">
-        <v>8.298043133559139</v>
+        <v>14.7517726370817</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1073062025754544</v>
+        <v>0.1033392411128273</v>
       </c>
       <c r="H74" t="n">
-        <v>7.363312562298676</v>
+        <v>3.394239822676357</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1569100669830178</v>
+        <v>0.117859872218662</v>
       </c>
       <c r="H75" t="n">
-        <v>61.09197818525553</v>
+        <v>21.00103154261331</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.003968765608019779</v>
+        <v>0.005878292642772768</v>
       </c>
       <c r="H76" t="n">
-        <v>-84.47918366366576</v>
+        <v>-77.01151705826661</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01425442029801047</v>
+        <v>0.02920149829515547</v>
       </c>
       <c r="H77" t="n">
-        <v>1.030404253334681</v>
+        <v>106.9701268717602</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08269301745851149</v>
+        <v>0.1005745059376496</v>
       </c>
       <c r="H78" t="n">
-        <v>28.65108488746117</v>
+        <v>56.47051829243934</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08839887560614276</v>
+        <v>0.06603887814941581</v>
       </c>
       <c r="H79" t="n">
-        <v>15.23189401078805</v>
+        <v>-13.91536424727973</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1613281584073701</v>
+        <v>-0.1522676894068221</v>
       </c>
       <c r="H80" t="n">
-        <v>-2.584557223282572</v>
+        <v>8.055577336363996</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1553599209537074</v>
+        <v>-0.1568173966277395</v>
       </c>
       <c r="H81" t="n">
-        <v>-26.05148686203878</v>
+        <v>25.35775479544268</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1562826918260567</v>
+        <v>0.1187731201093882</v>
       </c>
       <c r="H82" t="n">
-        <v>36.25898676501161</v>
+        <v>3.555325365377098</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1813023388589347</v>
+        <v>0.1944623116636404</v>
       </c>
       <c r="H83" t="n">
-        <v>1.865425935227332</v>
+        <v>9.25940796262074</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.08396093684005175</v>
+        <v>0.08157184049789443</v>
       </c>
       <c r="H84" t="n">
-        <v>252.2198715337189</v>
+        <v>242.1975059148194</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02935535655270312</v>
+        <v>0.06021927539860066</v>
       </c>
       <c r="H85" t="n">
-        <v>-52.32658006629853</v>
+        <v>-2.203238477907317</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03819759486660548</v>
+        <v>0.03669687530071119</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.65277585525263</v>
+        <v>-13.20236706568762</v>
       </c>
       <c r="I2" t="n">
-        <v>33.00337386403519</v>
+        <v>39.94334393601181</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0595672719658755</v>
+        <v>0.05888460316642855</v>
       </c>
       <c r="H3" t="n">
-        <v>22.31384977114901</v>
+        <v>20.91207584020855</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007016730674758977</v>
+        <v>0.01505732121492321</v>
       </c>
       <c r="H4" t="n">
-        <v>268.545987671781</v>
+        <v>690.8690779321886</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00558174888139492</v>
+        <v>0.02503877817020134</v>
       </c>
       <c r="H5" t="n">
-        <v>-247.0293182823429</v>
+        <v>559.5485685962095</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06261000079036701</v>
+        <v>0.03113033541913608</v>
       </c>
       <c r="H6" t="n">
-        <v>80.59059778421118</v>
+        <v>-10.20850005435956</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08855204987330606</v>
+        <v>0.04926306059380776</v>
       </c>
       <c r="H7" t="n">
-        <v>66.48581291063182</v>
+        <v>-7.381018269367439</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01490658233141812</v>
+        <v>-0.03083676144967969</v>
       </c>
       <c r="H8" t="n">
-        <v>179.2028081301959</v>
+        <v>-63.84427001137097</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001690300959692852</v>
+        <v>-0.04391316466878215</v>
       </c>
       <c r="H9" t="n">
-        <v>107.8516741809202</v>
+        <v>-103.9825270495194</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04729306482862562</v>
+        <v>-0.05447779976807383</v>
       </c>
       <c r="H10" t="n">
-        <v>34.94885456082012</v>
+        <v>25.06632232947468</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07418717711622526</v>
+        <v>-0.06047261554673258</v>
       </c>
       <c r="H11" t="n">
-        <v>19.37144077220124</v>
+        <v>34.27678402386258</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2340960532931304</v>
+        <v>-0.2533697196301742</v>
       </c>
       <c r="H12" t="n">
-        <v>4.237428573188897</v>
+        <v>-3.646924124319147</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3111000085225923</v>
+        <v>-0.3698567553278699</v>
       </c>
       <c r="H13" t="n">
-        <v>-13.20416371354739</v>
+        <v>-34.58477510024577</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05075162001597489</v>
+        <v>-0.06304516814824457</v>
       </c>
       <c r="H14" t="n">
-        <v>-36.80716808910736</v>
+        <v>-69.94592317147837</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.003085842890363873</v>
+        <v>-0.01123142833138899</v>
       </c>
       <c r="H15" t="n">
-        <v>91.1253314452846</v>
+        <v>67.69919682289331</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1346668713025791</v>
+        <v>0.1213001521279186</v>
       </c>
       <c r="H16" t="n">
-        <v>7.468533416354393</v>
+        <v>-3.198542252622812</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1475871522120627</v>
+        <v>0.1249742704972536</v>
       </c>
       <c r="H17" t="n">
-        <v>5.231112538889964</v>
+        <v>-10.89209781441065</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1331620833676958</v>
+        <v>0.1252435288847864</v>
       </c>
       <c r="H18" t="n">
-        <v>6.757937365241736</v>
+        <v>0.4095195414126414</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1278542482069725</v>
+        <v>0.1461661340715624</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.023301599360891</v>
+        <v>9.722931876804711</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03678928601984719</v>
+        <v>0.02861118657950151</v>
       </c>
       <c r="H20" t="n">
-        <v>7.144586591373874</v>
+        <v>-16.67319239912537</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05267653309215381</v>
+        <v>0.05332588252388147</v>
       </c>
       <c r="H21" t="n">
-        <v>-9.240768809702251</v>
+        <v>-8.121969759385905</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.05266148268420764</v>
+        <v>-0.0794939282982165</v>
       </c>
       <c r="H22" t="n">
-        <v>34.04782441385697</v>
+        <v>0.4434123399933709</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.07016960362575986</v>
+        <v>-0.07851642164217705</v>
       </c>
       <c r="H23" t="n">
-        <v>-12.18801564343637</v>
+        <v>-25.53300979778504</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1145094226431902</v>
+        <v>0.09786712133948434</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.052196883576929</v>
+        <v>-17.14216880862371</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1232162706591249</v>
+        <v>0.1395847881592913</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.341375812972784</v>
+        <v>10.6319668348486</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04823283847361042</v>
+        <v>0.05842503551548898</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.960056588517513</v>
+        <v>17.54568712224735</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09273467425940869</v>
+        <v>0.08934511227191817</v>
       </c>
       <c r="H27" t="n">
-        <v>6.989321260092233</v>
+        <v>3.078735070980489</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.07609160330851496</v>
+        <v>-0.0658456612588101</v>
       </c>
       <c r="H28" t="n">
-        <v>-19.65210499696565</v>
+        <v>-3.540622512446592</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09550856950380406</v>
+        <v>-0.08097010043221027</v>
       </c>
       <c r="H29" t="n">
-        <v>-34.19360530611367</v>
+        <v>-13.7664374563126</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07855707453166022</v>
+        <v>0.08537414057522948</v>
       </c>
       <c r="H30" t="n">
-        <v>23.30777639333505</v>
+        <v>34.00824176033719</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05835684704198968</v>
+        <v>0.06993200905241485</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.670513852526665</v>
+        <v>15.43657409099624</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1014777440641883</v>
+        <v>0.09893828124753824</v>
       </c>
       <c r="H32" t="n">
-        <v>3.270536841167464</v>
+        <v>0.6862096984813666</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06338803230345763</v>
+        <v>0.1247381449753012</v>
       </c>
       <c r="H33" t="n">
-        <v>-22.96498820713023</v>
+        <v>51.59335477067448</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.008802242539078907</v>
+        <v>-0.002150704869718027</v>
       </c>
       <c r="H34" t="n">
-        <v>-133.7830342715564</v>
+        <v>-108.2544119863903</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>0.007474504490262423</v>
+        <v>0.008382497022382853</v>
       </c>
       <c r="H35" t="n">
-        <v>166.676466436311</v>
+        <v>174.7762319353111</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00476771868138504</v>
+        <v>0.004428976118493459</v>
       </c>
       <c r="H36" t="n">
-        <v>785.852090427739</v>
+        <v>722.9130146332789</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0006052085631946093</v>
+        <v>-0.006761602361657539</v>
       </c>
       <c r="H37" t="n">
-        <v>95.17925927146115</v>
+        <v>46.14099357258172</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1020358789660517</v>
+        <v>0.1041707524207047</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.868097603937708</v>
+        <v>-2.877674478523505</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1022818874773153</v>
+        <v>0.1045586331169056</v>
       </c>
       <c r="H39" t="n">
-        <v>19.40061381057111</v>
+        <v>22.05841406790322</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004039995908217165</v>
+        <v>0.003767276113305323</v>
       </c>
       <c r="H40" t="n">
-        <v>36.01501543374192</v>
+        <v>26.83332615564793</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03635336617999158</v>
+        <v>0.01941374204941103</v>
       </c>
       <c r="H41" t="n">
-        <v>142.4083539905599</v>
+        <v>29.45302593698177</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09575626016116683</v>
+        <v>0.1013523672387794</v>
       </c>
       <c r="H42" t="n">
-        <v>-5.130885148000504</v>
+        <v>0.4133761272055603</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1211154539897585</v>
+        <v>0.1222537702080459</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8081524711119243</v>
+        <v>1.755608399429374</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03007479626620252</v>
+        <v>0.03076492040577667</v>
       </c>
       <c r="H44" t="n">
-        <v>-15.72757159719789</v>
+        <v>-13.7937783762388</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0332216816693883</v>
+        <v>0.03572007648190318</v>
       </c>
       <c r="H45" t="n">
-        <v>102.9403067904029</v>
+        <v>118.2021774801854</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05049762348090088</v>
+        <v>0.05066437159375096</v>
       </c>
       <c r="H46" t="n">
-        <v>39.34792225167033</v>
+        <v>39.80806277835936</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.07233176916606916</v>
+        <v>0.04562954200452892</v>
       </c>
       <c r="H47" t="n">
-        <v>43.40071189418956</v>
+        <v>-9.537553383600367</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03644658757496372</v>
+        <v>0.04737124670390871</v>
       </c>
       <c r="H48" t="n">
-        <v>-14.80720389621818</v>
+        <v>10.72885639368554</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0709187596797867</v>
+        <v>0.06568965953966789</v>
       </c>
       <c r="H49" t="n">
-        <v>2.07648240889519</v>
+        <v>-5.449990852584079</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01319781775301627</v>
+        <v>0.01576581799100422</v>
       </c>
       <c r="H50" t="n">
-        <v>-23.59148948388412</v>
+        <v>-8.72410179436655</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01502316724646558</v>
+        <v>0.01599341387461513</v>
       </c>
       <c r="H51" t="n">
-        <v>-22.83826292731912</v>
+        <v>-17.85489863477662</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1006740260478277</v>
+        <v>-0.1049607185442575</v>
       </c>
       <c r="H52" t="n">
-        <v>2.749629870665762</v>
+        <v>-1.391283612921226</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07752343921450217</v>
+        <v>-0.07165501097018118</v>
       </c>
       <c r="H53" t="n">
-        <v>16.05930129476169</v>
+        <v>22.4135081271865</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06769015725334654</v>
+        <v>0.06398983354280589</v>
       </c>
       <c r="H54" t="n">
-        <v>-7.429302636817595</v>
+        <v>-12.48973623977442</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09616158660878361</v>
+        <v>0.08671646937632152</v>
       </c>
       <c r="H55" t="n">
-        <v>55.22036172530475</v>
+        <v>39.97441409628797</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02780428365732081</v>
+        <v>0.02676707829122501</v>
       </c>
       <c r="H56" t="n">
-        <v>-20.53470274091964</v>
+        <v>-23.499060095036</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0282656451653466</v>
+        <v>0.03638097383518668</v>
       </c>
       <c r="H57" t="n">
-        <v>389.5740604584028</v>
+        <v>530.1353101877747</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03863652560886717</v>
+        <v>0.03974957792716755</v>
       </c>
       <c r="H58" t="n">
-        <v>54.48055973573867</v>
+        <v>58.93088083569654</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02757144665196607</v>
+        <v>0.03830675393947092</v>
       </c>
       <c r="H59" t="n">
-        <v>16.4402314035841</v>
+        <v>61.77777500529099</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0249463967996456</v>
+        <v>0.01000757853037881</v>
       </c>
       <c r="H60" t="n">
-        <v>-23.1061869173646</v>
+        <v>-69.15302522023239</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02511361585224851</v>
+        <v>0.04447619941784344</v>
       </c>
       <c r="H61" t="n">
-        <v>98.40124350948713</v>
+        <v>251.3684896269531</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05398668124619469</v>
+        <v>0.02872110653856923</v>
       </c>
       <c r="H62" t="n">
-        <v>-10.56272389239195</v>
+        <v>-52.41905084159801</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03678473407739007</v>
+        <v>0.04540136012176382</v>
       </c>
       <c r="H63" t="n">
-        <v>12.8729854382194</v>
+        <v>39.31287498552442</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03614603284979163</v>
+        <v>0.02677938367082512</v>
       </c>
       <c r="H64" t="n">
-        <v>-10.80819374318273</v>
+        <v>-33.92078157039081</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05966828493075703</v>
+        <v>0.06809490578783547</v>
       </c>
       <c r="H65" t="n">
-        <v>6.432822329222314</v>
+        <v>21.46373936593511</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.09762585163865245</v>
+        <v>0.1058596686113273</v>
       </c>
       <c r="H66" t="n">
-        <v>4.352291187526736</v>
+        <v>13.15341969903649</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1149906491444582</v>
+        <v>0.125991945689305</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.3949939282026267</v>
+        <v>9.134339259320463</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.03012942153526091</v>
+        <v>-0.05187881086540459</v>
       </c>
       <c r="H68" t="n">
-        <v>13.54661670416778</v>
+        <v>-48.8610963018268</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01799198648811699</v>
+        <v>-0.004755217170772516</v>
       </c>
       <c r="H69" t="n">
-        <v>15.21953053959942</v>
+        <v>77.59282754072117</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07652342148165765</v>
+        <v>0.07486329236143296</v>
       </c>
       <c r="H70" t="n">
-        <v>-17.39366078780789</v>
+        <v>-19.1857551111673</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.09795915617870746</v>
+        <v>0.08014206986092634</v>
       </c>
       <c r="H71" t="n">
-        <v>7.400996564895028</v>
+        <v>-12.13339818756186</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05013110604563263</v>
+        <v>-0.03915423655426031</v>
       </c>
       <c r="H72" t="n">
-        <v>10.60950646764424</v>
+        <v>30.18273871152995</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.06288130032358182</v>
+        <v>-0.09160354971818271</v>
       </c>
       <c r="H73" t="n">
-        <v>14.7517726370817</v>
+        <v>-24.18700302699491</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1033392411128273</v>
+        <v>0.111600460828608</v>
       </c>
       <c r="H74" t="n">
-        <v>3.394239822676357</v>
+        <v>11.65985628475841</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.117859872218662</v>
+        <v>0.1134939491778463</v>
       </c>
       <c r="H75" t="n">
-        <v>21.00103154261331</v>
+        <v>16.51874947637912</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.005878292642772768</v>
+        <v>-0.007559277526442381</v>
       </c>
       <c r="H76" t="n">
-        <v>-77.01151705826661</v>
+        <v>-129.5623802741607</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02920149829515547</v>
+        <v>0.0283558185390719</v>
       </c>
       <c r="H77" t="n">
-        <v>106.9701268717602</v>
+        <v>100.9762410567117</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1005745059376496</v>
+        <v>0.08798211001812058</v>
       </c>
       <c r="H78" t="n">
-        <v>56.47051829243934</v>
+        <v>36.87968165145399</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.06603887814941581</v>
+        <v>0.06856901030124732</v>
       </c>
       <c r="H79" t="n">
-        <v>-13.91536424727973</v>
+        <v>-10.61722365494763</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1522676894068221</v>
+        <v>-0.1502696939999564</v>
       </c>
       <c r="H80" t="n">
-        <v>8.055577336363996</v>
+        <v>9.262035087739259</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1568173966277395</v>
+        <v>-0.1519912727742684</v>
       </c>
       <c r="H81" t="n">
-        <v>25.35775479544268</v>
+        <v>27.65490248316695</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1187731201093882</v>
+        <v>0.1491876000682133</v>
       </c>
       <c r="H82" t="n">
-        <v>3.555325365377098</v>
+        <v>30.07295296541117</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1944623116636404</v>
+        <v>0.1755919542025658</v>
       </c>
       <c r="H83" t="n">
-        <v>9.25940796262074</v>
+        <v>-1.34297594715324</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.08157184049789443</v>
+        <v>0.08816241887359896</v>
       </c>
       <c r="H84" t="n">
-        <v>242.1975059148194</v>
+        <v>269.8452758920145</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.06021927539860066</v>
+        <v>0.04485108812233483</v>
       </c>
       <c r="H85" t="n">
-        <v>-2.203238477907317</v>
+        <v>-27.16134260877758</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>